--- a/data/xlsx/2021-23.1.xlsx
+++ b/data/xlsx/2021-23.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC85AF9-3EB5-FB45-904E-AADD06B41222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DF933-E942-6A48-97E0-522922A4C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3480" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
+    <workbookView xWindow="3480" yWindow="3480" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="97">
   <si>
     <t>team</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>00:48.2</t>
-  </si>
-  <si>
-    <t>Dave Horner</t>
   </si>
   <si>
     <t>2021-11-23</t>
@@ -719,7 +716,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -741,10 +738,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -760,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91014362-D301-764B-81DC-9DBA68C6353F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -776,7 +773,7 @@
         <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +857,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,7 +873,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -958,7 +955,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -1130,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
@@ -1379,7 +1376,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -1542,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -1651,7 +1648,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -2057,7 +2054,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -2247,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9BFD82-EE29-A249-9E04-62B6D8B9121F}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2294,7 +2291,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -2422,7 +2419,7 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -2556,7 +2553,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>

--- a/data/xlsx/2021-23.1.xlsx
+++ b/data/xlsx/2021-23.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8DF933-E942-6A48-97E0-522922A4C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D9005-B07E-BD49-9091-D4BC077087C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="3480" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="97">
   <si>
     <t>team</t>
   </si>
@@ -757,7 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91014362-D301-764B-81DC-9DBA68C6353F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -806,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,9 +817,6 @@
       </c>
       <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/xlsx/2021-23.1.xlsx
+++ b/data/xlsx/2021-23.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425D9005-B07E-BD49-9091-D4BC077087C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37692E2D-4A39-824D-9627-B2D1B03F1562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="3480" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>David Horner</t>
   </si>
   <si>
-    <t>Jay Shalatay</t>
-  </si>
-  <si>
     <t>Will Eger</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>Jesse Lehman</t>
+  </si>
+  <si>
+    <t>Jay Shalaty</t>
   </si>
 </sst>
 </file>
@@ -396,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,7 +436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -542,7 +542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -716,32 +716,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -758,7 +758,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,54 +769,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,82 +824,85 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C4">
+    <sortCondition ref="C4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -928,91 +931,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1038,25 +1041,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
@@ -1076,19 +1079,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -1108,25 +1111,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
@@ -1146,25 +1149,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
@@ -1184,22 +1187,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7</v>
@@ -1219,22 +1222,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7</v>
@@ -1254,16 +1257,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -1289,16 +1292,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -1349,91 +1352,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
@@ -1453,19 +1456,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -1488,22 +1491,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -1523,25 +1526,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1558,16 +1561,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -1621,94 +1624,94 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
@@ -1728,25 +1731,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
@@ -1766,25 +1769,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1801,16 +1804,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -1836,19 +1839,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
@@ -1868,19 +1871,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7</v>
@@ -1900,22 +1903,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7</v>
@@ -1935,16 +1938,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1967,16 +1970,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -2027,91 +2030,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -2134,16 +2137,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -2166,19 +2169,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -2201,25 +2204,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2264,94 +2267,94 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -2368,19 +2371,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -2406,19 +2409,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -2438,19 +2441,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -2473,16 +2476,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -2491,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2508,22 +2511,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2540,22 +2543,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -2572,22 +2575,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>7</v>

--- a/data/xlsx/2021-23.1.xlsx
+++ b/data/xlsx/2021-23.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37692E2D-4A39-824D-9627-B2D1B03F1562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56371450-CE98-2C43-AD0B-C571031583DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="3480" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
@@ -757,9 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91014362-D301-764B-81DC-9DBA68C6353F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
